--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LF DiffDAGOLS 2005-12-31 to 2008-09-30 stable0.1.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LF DiffDAGOLS 2005-12-31 to 2008-09-30 stable0.1.xlsx
@@ -37,31 +37,31 @@
     <t>LF Lag</t>
   </si>
   <si>
-    <t>-0.169</t>
-  </si>
-  <si>
-    <t>-0.014</t>
-  </si>
-  <si>
-    <t>-0.002</t>
-  </si>
-  <si>
-    <t>25.85**</t>
-  </si>
-  <si>
-    <t>1.509***</t>
-  </si>
-  <si>
-    <t>2.341***</t>
-  </si>
-  <si>
-    <t>11.845*</t>
-  </si>
-  <si>
-    <t>0.842***</t>
-  </si>
-  <si>
-    <t>0.078</t>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>44.29***</t>
+  </si>
+  <si>
+    <t>2.21***</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>-0.89</t>
+  </si>
+  <si>
+    <t>0.46***</t>
+  </si>
+  <si>
+    <t>0.82*</t>
   </si>
 </sst>
 </file>
